--- a/SCH-STH/Oversampling/gh_sch_sth_oversampling_1_hh_202110.xlsx
+++ b/SCH-STH/Oversampling/gh_sch_sth_oversampling_1_hh_202110.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$AMG$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$M$73</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="794">
   <si>
     <t>type</t>
   </si>
@@ -2417,10 +2417,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2473,6 +2473,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -2480,28 +2488,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2515,6 +2501,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2532,14 +2571,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2548,7 +2579,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2562,7 +2609,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2570,53 +2617,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2649,13 +2649,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,13 +2763,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2685,31 +2811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2721,115 +2829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2921,15 +2921,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2941,6 +2932,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2962,11 +2964,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2974,146 +2974,146 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3566,12 +3566,12 @@
   <sheetPr/>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9933333333333" defaultRowHeight="15.75"/>
@@ -3869,9 +3869,7 @@
         <v>41</v>
       </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
     <row r="13" s="14" customFormat="1" ht="31.5" spans="1:11">
@@ -3915,9 +3913,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="18"/>
-      <c r="J14" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
     <row r="15" s="14" customFormat="1" ht="47.25" spans="1:11">
@@ -3938,9 +3934,7 @@
         <v>57</v>
       </c>
       <c r="I15" s="18"/>
-      <c r="J15" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" s="14" customFormat="1" ht="31.5" spans="1:11">
@@ -3984,9 +3978,7 @@
         <v>62</v>
       </c>
       <c r="I17" s="18"/>
-      <c r="J17" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J17" s="18"/>
       <c r="K17" s="18"/>
     </row>
     <row r="18" s="14" customFormat="1" ht="47.25" spans="1:11">
@@ -4007,9 +3999,7 @@
         <v>65</v>
       </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
     <row r="19" s="14" customFormat="1" ht="47.25" spans="1:11">
@@ -4127,9 +4117,7 @@
         <v>65</v>
       </c>
       <c r="I23" s="18"/>
-      <c r="J23" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" s="14" customFormat="1" ht="47.25" spans="1:11">
@@ -4150,9 +4138,7 @@
         <v>65</v>
       </c>
       <c r="I24" s="18"/>
-      <c r="J24" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J24" s="18"/>
       <c r="K24" s="18"/>
     </row>
     <row r="25" s="14" customFormat="1" ht="47.25" spans="1:11">
@@ -4242,9 +4228,7 @@
         <v>65</v>
       </c>
       <c r="I28" s="18"/>
-      <c r="J28" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J28" s="18"/>
       <c r="K28" s="18"/>
     </row>
     <row r="29" s="14" customFormat="1" ht="47.25" spans="1:11">
@@ -4702,9 +4686,7 @@
         <v>65</v>
       </c>
       <c r="I48" s="18"/>
-      <c r="J48" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J48" s="18"/>
       <c r="K48" s="18"/>
     </row>
     <row r="49" s="14" customFormat="1" ht="63" spans="1:11">
@@ -4725,9 +4707,7 @@
         <v>65</v>
       </c>
       <c r="I49" s="18"/>
-      <c r="J49" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J49" s="18"/>
       <c r="K49" s="18"/>
     </row>
     <row r="50" s="14" customFormat="1" ht="47.25" spans="1:11">
@@ -4990,9 +4970,7 @@
       <c r="G61" s="20"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
-      <c r="J61" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J61" s="18"/>
       <c r="K61" s="18"/>
     </row>
     <row r="62" s="14" customFormat="1" ht="31.5" spans="1:11">
@@ -5068,9 +5046,7 @@
       <c r="G65" s="20"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
-      <c r="J65" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="J65" s="18"/>
       <c r="K65" s="18"/>
     </row>
     <row r="66" s="14" customFormat="1" spans="1:11">
@@ -5207,6 +5183,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M73">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -5218,8 +5197,8 @@
   <sheetPr/>
   <dimension ref="A1:G596"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B112" sqref="B112:B115"/>
     </sheetView>
@@ -9951,7 +9930,6 @@
       <c r="C381" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D381"/>
       <c r="E381" t="s">
         <v>320</v>
       </c>
@@ -9966,7 +9944,6 @@
       <c r="C382" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D382"/>
       <c r="E382" t="s">
         <v>320</v>
       </c>
@@ -9981,7 +9958,6 @@
       <c r="C383" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D383"/>
       <c r="E383" t="s">
         <v>316</v>
       </c>
@@ -9996,7 +9972,6 @@
       <c r="C384" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="D384"/>
       <c r="E384" t="s">
         <v>316</v>
       </c>
@@ -10011,7 +9986,6 @@
       <c r="C385" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="D385"/>
       <c r="E385" t="s">
         <v>316</v>
       </c>
@@ -10026,7 +10000,6 @@
       <c r="C386" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="D386"/>
       <c r="E386" t="s">
         <v>316</v>
       </c>
@@ -10041,7 +10014,6 @@
       <c r="C387" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="D387"/>
       <c r="E387" t="s">
         <v>316</v>
       </c>
@@ -10056,7 +10028,6 @@
       <c r="C388" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="D388"/>
       <c r="E388" t="s">
         <v>316</v>
       </c>
@@ -10071,7 +10042,6 @@
       <c r="C389" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="D389"/>
       <c r="E389" t="s">
         <v>316</v>
       </c>
@@ -10086,7 +10056,6 @@
       <c r="C390" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="D390"/>
       <c r="E390" t="s">
         <v>316</v>
       </c>
@@ -10101,7 +10070,6 @@
       <c r="C391" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="D391"/>
       <c r="E391" t="s">
         <v>316</v>
       </c>
@@ -10116,7 +10084,6 @@
       <c r="C392" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="D392"/>
       <c r="E392" t="s">
         <v>316</v>
       </c>
@@ -10131,7 +10098,6 @@
       <c r="C393" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="D393"/>
       <c r="E393" t="s">
         <v>316</v>
       </c>
@@ -10146,7 +10112,6 @@
       <c r="C394" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="D394"/>
       <c r="E394" t="s">
         <v>316</v>
       </c>
@@ -10161,7 +10126,6 @@
       <c r="C395" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="D395"/>
       <c r="E395" t="s">
         <v>316</v>
       </c>
@@ -10176,7 +10140,6 @@
       <c r="C396" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="D396"/>
       <c r="E396" t="s">
         <v>323</v>
       </c>
@@ -10191,7 +10154,6 @@
       <c r="C397" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="D397"/>
       <c r="E397" t="s">
         <v>323</v>
       </c>
@@ -10206,7 +10168,6 @@
       <c r="C398" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="D398"/>
       <c r="E398" t="s">
         <v>323</v>
       </c>
@@ -10221,7 +10182,6 @@
       <c r="C399" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="D399"/>
       <c r="E399" t="s">
         <v>323</v>
       </c>
@@ -10236,7 +10196,6 @@
       <c r="C400" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="D400"/>
       <c r="E400" t="s">
         <v>323</v>
       </c>
@@ -10251,7 +10210,6 @@
       <c r="C401" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="D401"/>
       <c r="E401" t="s">
         <v>323</v>
       </c>
@@ -10266,7 +10224,6 @@
       <c r="C402" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="D402"/>
       <c r="E402" t="s">
         <v>323</v>
       </c>
@@ -10281,7 +10238,6 @@
       <c r="C403" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="D403"/>
       <c r="E403" t="s">
         <v>323</v>
       </c>
@@ -10296,7 +10252,6 @@
       <c r="C404" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="D404"/>
       <c r="E404" t="s">
         <v>323</v>
       </c>
@@ -10311,7 +10266,6 @@
       <c r="C405" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="D405"/>
       <c r="E405" t="s">
         <v>323</v>
       </c>
@@ -10326,7 +10280,6 @@
       <c r="C406" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="D406"/>
       <c r="E406" t="s">
         <v>323</v>
       </c>
@@ -10341,7 +10294,6 @@
       <c r="C407" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="D407"/>
       <c r="E407" t="s">
         <v>323</v>
       </c>
@@ -10356,7 +10308,6 @@
       <c r="C408" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="D408"/>
       <c r="E408" t="s">
         <v>323</v>
       </c>
@@ -10371,7 +10322,6 @@
       <c r="C409" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="D409"/>
       <c r="E409" t="s">
         <v>323</v>
       </c>
@@ -10386,7 +10336,6 @@
       <c r="C410" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="D410"/>
       <c r="E410" t="s">
         <v>323</v>
       </c>
@@ -10401,7 +10350,6 @@
       <c r="C411" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="D411"/>
       <c r="E411" t="s">
         <v>323</v>
       </c>
@@ -10416,7 +10364,6 @@
       <c r="C412" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="D412"/>
       <c r="E412" t="s">
         <v>323</v>
       </c>
@@ -10431,7 +10378,6 @@
       <c r="C413" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="D413"/>
       <c r="E413" t="s">
         <v>323</v>
       </c>
@@ -10446,7 +10392,6 @@
       <c r="C414" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="D414"/>
       <c r="E414" t="s">
         <v>317</v>
       </c>
@@ -10461,7 +10406,6 @@
       <c r="C415" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="D415"/>
       <c r="E415" t="s">
         <v>317</v>
       </c>
@@ -10476,7 +10420,6 @@
       <c r="C416" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="D416"/>
       <c r="E416" t="s">
         <v>317</v>
       </c>
@@ -10491,7 +10434,6 @@
       <c r="C417" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="D417"/>
       <c r="E417" t="s">
         <v>317</v>
       </c>
@@ -10506,7 +10448,6 @@
       <c r="C418" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="D418"/>
       <c r="E418" t="s">
         <v>317</v>
       </c>
@@ -10521,7 +10462,6 @@
       <c r="C419" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="D419"/>
       <c r="E419" t="s">
         <v>317</v>
       </c>
@@ -10536,7 +10476,6 @@
       <c r="C420" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="D420"/>
       <c r="E420" t="s">
         <v>317</v>
       </c>
@@ -10551,7 +10490,6 @@
       <c r="C421" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="D421"/>
       <c r="E421" t="s">
         <v>317</v>
       </c>
@@ -10566,7 +10504,6 @@
       <c r="C422" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="D422"/>
       <c r="E422" t="s">
         <v>317</v>
       </c>
@@ -10581,7 +10518,6 @@
       <c r="C423" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="D423"/>
       <c r="E423" t="s">
         <v>317</v>
       </c>
@@ -10596,7 +10532,6 @@
       <c r="C424" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="D424"/>
       <c r="E424" t="s">
         <v>317</v>
       </c>
@@ -10611,7 +10546,6 @@
       <c r="C425" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="D425"/>
       <c r="E425" t="s">
         <v>317</v>
       </c>
@@ -10626,7 +10560,6 @@
       <c r="C426" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="D426"/>
       <c r="E426" t="s">
         <v>317</v>
       </c>
@@ -10641,7 +10574,6 @@
       <c r="C427" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="D427"/>
       <c r="E427" t="s">
         <v>317</v>
       </c>
@@ -10656,7 +10588,6 @@
       <c r="C428" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="D428"/>
       <c r="E428" t="s">
         <v>317</v>
       </c>
@@ -10671,7 +10602,6 @@
       <c r="C429" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="D429"/>
       <c r="E429" t="s">
         <v>317</v>
       </c>
@@ -10686,7 +10616,6 @@
       <c r="C430" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="D430"/>
       <c r="E430" t="s">
         <v>317</v>
       </c>
@@ -10701,7 +10630,6 @@
       <c r="C431" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="D431"/>
       <c r="E431" t="s">
         <v>317</v>
       </c>
@@ -10716,7 +10644,6 @@
       <c r="C432" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="D432"/>
       <c r="E432" t="s">
         <v>317</v>
       </c>
@@ -10731,7 +10658,6 @@
       <c r="C433" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="D433"/>
       <c r="E433" t="s">
         <v>317</v>
       </c>
@@ -10746,7 +10672,6 @@
       <c r="C434" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="D434"/>
       <c r="E434" t="s">
         <v>319</v>
       </c>
@@ -10761,7 +10686,6 @@
       <c r="C435" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="D435"/>
       <c r="E435" t="s">
         <v>319</v>
       </c>
@@ -10776,7 +10700,6 @@
       <c r="C436" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="D436"/>
       <c r="E436" t="s">
         <v>319</v>
       </c>
@@ -10791,7 +10714,6 @@
       <c r="C437" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="D437"/>
       <c r="E437" t="s">
         <v>319</v>
       </c>
@@ -10806,7 +10728,6 @@
       <c r="C438" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="D438"/>
       <c r="E438" t="s">
         <v>319</v>
       </c>
@@ -10821,7 +10742,6 @@
       <c r="C439" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="D439"/>
       <c r="E439" t="s">
         <v>319</v>
       </c>
@@ -10836,7 +10756,6 @@
       <c r="C440" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="D440"/>
       <c r="E440" t="s">
         <v>319</v>
       </c>
@@ -10851,7 +10770,6 @@
       <c r="C441" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="D441"/>
       <c r="E441" t="s">
         <v>319</v>
       </c>
@@ -10866,7 +10784,6 @@
       <c r="C442" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="D442"/>
       <c r="E442" t="s">
         <v>319</v>
       </c>
@@ -10881,7 +10798,6 @@
       <c r="C443" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="D443"/>
       <c r="E443" t="s">
         <v>319</v>
       </c>
@@ -10896,7 +10812,6 @@
       <c r="C444" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="D444"/>
       <c r="E444" t="s">
         <v>319</v>
       </c>
@@ -10911,7 +10826,6 @@
       <c r="C445" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="D445"/>
       <c r="E445" t="s">
         <v>318</v>
       </c>
@@ -10926,7 +10840,6 @@
       <c r="C446" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="D446"/>
       <c r="E446" t="s">
         <v>318</v>
       </c>
@@ -10941,7 +10854,6 @@
       <c r="C447" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="D447"/>
       <c r="E447" t="s">
         <v>318</v>
       </c>
@@ -10956,7 +10868,6 @@
       <c r="C448" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="D448"/>
       <c r="E448" t="s">
         <v>318</v>
       </c>
@@ -10971,7 +10882,6 @@
       <c r="C449" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="D449"/>
       <c r="E449" t="s">
         <v>318</v>
       </c>
@@ -10986,7 +10896,6 @@
       <c r="C450" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="D450"/>
       <c r="E450" t="s">
         <v>318</v>
       </c>
@@ -11001,7 +10910,6 @@
       <c r="C451" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="D451"/>
       <c r="E451" t="s">
         <v>318</v>
       </c>
@@ -11016,7 +10924,6 @@
       <c r="C452" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="D452"/>
       <c r="E452" t="s">
         <v>318</v>
       </c>
@@ -11031,7 +10938,6 @@
       <c r="C453" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="D453"/>
       <c r="E453" t="s">
         <v>318</v>
       </c>
@@ -11046,7 +10952,6 @@
       <c r="C454" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="D454"/>
       <c r="E454" t="s">
         <v>318</v>
       </c>
@@ -11061,7 +10966,6 @@
       <c r="C455" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="D455"/>
       <c r="E455" t="s">
         <v>318</v>
       </c>
@@ -11076,7 +10980,6 @@
       <c r="C456" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D456"/>
       <c r="E456" t="s">
         <v>318</v>
       </c>
@@ -11091,7 +10994,6 @@
       <c r="C457" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="D457"/>
       <c r="E457" t="s">
         <v>318</v>
       </c>
@@ -11106,7 +11008,6 @@
       <c r="C458" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D458"/>
       <c r="E458" t="s">
         <v>318</v>
       </c>
@@ -11121,7 +11022,6 @@
       <c r="C459" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="D459"/>
       <c r="E459" t="s">
         <v>318</v>
       </c>
@@ -11136,7 +11036,6 @@
       <c r="C460" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="D460"/>
       <c r="E460" t="s">
         <v>318</v>
       </c>
@@ -11151,7 +11050,6 @@
       <c r="C461" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="D461"/>
       <c r="E461" t="s">
         <v>318</v>
       </c>
@@ -11166,7 +11064,6 @@
       <c r="C462" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="D462"/>
       <c r="E462" t="s">
         <v>318</v>
       </c>
@@ -11181,7 +11078,6 @@
       <c r="C463" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="D463"/>
       <c r="E463" t="s">
         <v>320</v>
       </c>
@@ -11196,7 +11092,6 @@
       <c r="C464" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="D464"/>
       <c r="E464" t="s">
         <v>320</v>
       </c>
@@ -11211,7 +11106,6 @@
       <c r="C465" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="D465"/>
       <c r="E465" t="s">
         <v>320</v>
       </c>
@@ -11226,7 +11120,6 @@
       <c r="C466" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="D466"/>
       <c r="E466" t="s">
         <v>320</v>
       </c>
@@ -11241,7 +11134,6 @@
       <c r="C467" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="D467"/>
       <c r="E467" t="s">
         <v>320</v>
       </c>
@@ -11256,7 +11148,6 @@
       <c r="C468" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="D468"/>
       <c r="E468" t="s">
         <v>320</v>
       </c>
@@ -11271,7 +11162,6 @@
       <c r="C469" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="D469"/>
       <c r="E469" t="s">
         <v>320</v>
       </c>
@@ -11286,7 +11176,6 @@
       <c r="C470" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="D470"/>
       <c r="E470" t="s">
         <v>320</v>
       </c>
@@ -11301,7 +11190,6 @@
       <c r="C471" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="D471"/>
       <c r="E471" t="s">
         <v>320</v>
       </c>
@@ -11316,7 +11204,6 @@
       <c r="C472" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="D472"/>
       <c r="E472" t="s">
         <v>320</v>
       </c>
@@ -11331,7 +11218,6 @@
       <c r="C473" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="D473"/>
       <c r="E473" t="s">
         <v>320</v>
       </c>
@@ -11346,7 +11232,6 @@
       <c r="C474" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D474"/>
       <c r="E474" t="s">
         <v>320</v>
       </c>
@@ -11361,7 +11246,6 @@
       <c r="C475" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="D475"/>
       <c r="E475" t="s">
         <v>320</v>
       </c>
@@ -11376,7 +11260,6 @@
       <c r="C476" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="D476"/>
       <c r="E476" t="s">
         <v>320</v>
       </c>
@@ -11391,7 +11274,6 @@
       <c r="C477" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="D477"/>
       <c r="E477" t="s">
         <v>320</v>
       </c>
@@ -11406,7 +11288,6 @@
       <c r="C478" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="D478"/>
       <c r="E478" t="s">
         <v>320</v>
       </c>
@@ -11421,7 +11302,6 @@
       <c r="C479" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="D479"/>
       <c r="E479" t="s">
         <v>320</v>
       </c>
@@ -11436,7 +11316,6 @@
       <c r="C480" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="D480"/>
       <c r="E480" t="s">
         <v>320</v>
       </c>
@@ -11451,7 +11330,6 @@
       <c r="C481" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="D481"/>
       <c r="E481" t="s">
         <v>320</v>
       </c>
@@ -11466,7 +11344,6 @@
       <c r="C482" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="D482"/>
       <c r="E482" t="s">
         <v>320</v>
       </c>
@@ -11481,7 +11358,6 @@
       <c r="C483" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="D483"/>
       <c r="E483" t="s">
         <v>320</v>
       </c>
@@ -11496,7 +11372,6 @@
       <c r="C484" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="D484"/>
       <c r="E484" t="s">
         <v>320</v>
       </c>
@@ -11511,7 +11386,6 @@
       <c r="C485" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="D485"/>
       <c r="E485" t="s">
         <v>320</v>
       </c>
@@ -11526,7 +11400,6 @@
       <c r="C486" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D486"/>
       <c r="E486" t="s">
         <v>320</v>
       </c>
@@ -11541,7 +11414,6 @@
       <c r="C487" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="D487"/>
       <c r="E487" t="s">
         <v>321</v>
       </c>
@@ -11556,7 +11428,6 @@
       <c r="C488" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="D488"/>
       <c r="E488" t="s">
         <v>321</v>
       </c>
@@ -11571,7 +11442,6 @@
       <c r="C489" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="D489"/>
       <c r="E489" t="s">
         <v>321</v>
       </c>
@@ -11586,7 +11456,6 @@
       <c r="C490" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="D490"/>
       <c r="E490" t="s">
         <v>321</v>
       </c>
@@ -11601,7 +11470,6 @@
       <c r="C491" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="D491"/>
       <c r="E491" t="s">
         <v>321</v>
       </c>
@@ -11616,7 +11484,6 @@
       <c r="C492" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="D492"/>
       <c r="E492" t="s">
         <v>321</v>
       </c>
@@ -11631,7 +11498,6 @@
       <c r="C493" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="D493"/>
       <c r="E493" t="s">
         <v>321</v>
       </c>
@@ -11646,7 +11512,6 @@
       <c r="C494" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="D494"/>
       <c r="E494" t="s">
         <v>321</v>
       </c>
@@ -11661,7 +11526,6 @@
       <c r="C495" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="D495"/>
       <c r="E495" t="s">
         <v>321</v>
       </c>
@@ -11676,7 +11540,6 @@
       <c r="C496" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="D496"/>
       <c r="E496" t="s">
         <v>321</v>
       </c>
@@ -11691,7 +11554,6 @@
       <c r="C497" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="D497"/>
       <c r="E497" t="s">
         <v>321</v>
       </c>
@@ -11706,7 +11568,6 @@
       <c r="C498" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="D498"/>
       <c r="E498" t="s">
         <v>329</v>
       </c>
@@ -11721,7 +11582,6 @@
       <c r="C499" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="D499"/>
       <c r="E499" t="s">
         <v>329</v>
       </c>
@@ -11736,7 +11596,6 @@
       <c r="C500" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="D500"/>
       <c r="E500" t="s">
         <v>329</v>
       </c>
@@ -11751,7 +11610,6 @@
       <c r="C501" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="D501"/>
       <c r="E501" t="s">
         <v>329</v>
       </c>
@@ -11766,7 +11624,6 @@
       <c r="C502" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="D502"/>
       <c r="E502" t="s">
         <v>329</v>
       </c>
@@ -11781,7 +11638,6 @@
       <c r="C503" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="D503"/>
       <c r="E503" t="s">
         <v>329</v>
       </c>
@@ -11796,7 +11652,6 @@
       <c r="C504" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="D504"/>
       <c r="E504" t="s">
         <v>329</v>
       </c>
@@ -11811,7 +11666,6 @@
       <c r="C505" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="D505"/>
       <c r="E505" t="s">
         <v>329</v>
       </c>
@@ -11826,7 +11680,6 @@
       <c r="C506" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="D506"/>
       <c r="E506" t="s">
         <v>329</v>
       </c>
@@ -11841,7 +11694,6 @@
       <c r="C507" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="D507"/>
       <c r="E507" t="s">
         <v>329</v>
       </c>
@@ -11856,7 +11708,6 @@
       <c r="C508" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="D508"/>
       <c r="E508" t="s">
         <v>329</v>
       </c>
@@ -11871,7 +11722,6 @@
       <c r="C509" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="D509"/>
       <c r="E509" t="s">
         <v>329</v>
       </c>
@@ -11886,7 +11736,6 @@
       <c r="C510" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="D510"/>
       <c r="E510" t="s">
         <v>322</v>
       </c>
@@ -11901,7 +11750,6 @@
       <c r="C511" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="D511"/>
       <c r="E511" t="s">
         <v>322</v>
       </c>
@@ -11916,7 +11764,6 @@
       <c r="C512" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="D512"/>
       <c r="E512" t="s">
         <v>322</v>
       </c>
@@ -11931,7 +11778,6 @@
       <c r="C513" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="D513"/>
       <c r="E513" t="s">
         <v>322</v>
       </c>
@@ -11946,7 +11792,6 @@
       <c r="C514" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="D514"/>
       <c r="E514" t="s">
         <v>322</v>
       </c>
@@ -11961,7 +11806,6 @@
       <c r="C515" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="D515"/>
       <c r="E515" t="s">
         <v>322</v>
       </c>
@@ -11976,7 +11820,6 @@
       <c r="C516" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="D516"/>
       <c r="E516" t="s">
         <v>322</v>
       </c>
@@ -11991,7 +11834,6 @@
       <c r="C517" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="D517"/>
       <c r="E517" t="s">
         <v>322</v>
       </c>
@@ -12006,7 +11848,6 @@
       <c r="C518" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="D518"/>
       <c r="E518" t="s">
         <v>322</v>
       </c>
@@ -12021,7 +11862,6 @@
       <c r="C519" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="D519"/>
       <c r="E519" t="s">
         <v>322</v>
       </c>
@@ -12036,7 +11876,6 @@
       <c r="C520" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="D520"/>
       <c r="E520" t="s">
         <v>324</v>
       </c>
@@ -12051,7 +11890,6 @@
       <c r="C521" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="D521"/>
       <c r="E521" t="s">
         <v>324</v>
       </c>
@@ -12066,7 +11904,6 @@
       <c r="C522" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="D522"/>
       <c r="E522" t="s">
         <v>324</v>
       </c>
@@ -12081,7 +11918,6 @@
       <c r="C523" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="D523"/>
       <c r="E523" t="s">
         <v>324</v>
       </c>
@@ -12096,7 +11932,6 @@
       <c r="C524" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="D524"/>
       <c r="E524" t="s">
         <v>324</v>
       </c>
@@ -12111,7 +11946,6 @@
       <c r="C525" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="D525"/>
       <c r="E525" t="s">
         <v>324</v>
       </c>
@@ -12126,7 +11960,6 @@
       <c r="C526" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="D526"/>
       <c r="E526" t="s">
         <v>324</v>
       </c>
@@ -12141,7 +11974,6 @@
       <c r="C527" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="D527"/>
       <c r="E527" t="s">
         <v>324</v>
       </c>
@@ -12156,7 +11988,6 @@
       <c r="C528" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="D528"/>
       <c r="E528" t="s">
         <v>324</v>
       </c>
@@ -12171,7 +12002,6 @@
       <c r="C529" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="D529"/>
       <c r="E529" t="s">
         <v>324</v>
       </c>
@@ -12186,7 +12016,6 @@
       <c r="C530" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="D530"/>
       <c r="E530" t="s">
         <v>324</v>
       </c>
@@ -12201,7 +12030,6 @@
       <c r="C531" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="D531"/>
       <c r="E531" t="s">
         <v>324</v>
       </c>
@@ -12216,7 +12044,6 @@
       <c r="C532" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="D532"/>
       <c r="E532" t="s">
         <v>324</v>
       </c>
@@ -12231,7 +12058,6 @@
       <c r="C533" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="D533"/>
       <c r="E533" t="s">
         <v>324</v>
       </c>
@@ -12246,7 +12072,6 @@
       <c r="C534" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="D534"/>
       <c r="E534" t="s">
         <v>324</v>
       </c>
@@ -12261,7 +12086,6 @@
       <c r="C535" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="D535"/>
       <c r="E535" t="s">
         <v>325</v>
       </c>
@@ -12276,7 +12100,6 @@
       <c r="C536" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="D536"/>
       <c r="E536" t="s">
         <v>325</v>
       </c>
@@ -12291,7 +12114,6 @@
       <c r="C537" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="D537"/>
       <c r="E537" t="s">
         <v>325</v>
       </c>
@@ -12306,7 +12128,6 @@
       <c r="C538" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="D538"/>
       <c r="E538" t="s">
         <v>325</v>
       </c>
@@ -12321,7 +12142,6 @@
       <c r="C539" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="D539"/>
       <c r="E539" t="s">
         <v>325</v>
       </c>
@@ -12336,7 +12156,6 @@
       <c r="C540" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="D540"/>
       <c r="E540" t="s">
         <v>325</v>
       </c>
@@ -12351,7 +12170,6 @@
       <c r="C541" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="D541"/>
       <c r="E541" t="s">
         <v>325</v>
       </c>
@@ -12366,7 +12184,6 @@
       <c r="C542" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="D542"/>
       <c r="E542" t="s">
         <v>325</v>
       </c>
@@ -12381,7 +12198,6 @@
       <c r="C543" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="D543"/>
       <c r="E543" t="s">
         <v>326</v>
       </c>
@@ -12396,7 +12212,6 @@
       <c r="C544" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="D544"/>
       <c r="E544" t="s">
         <v>326</v>
       </c>
@@ -12411,7 +12226,6 @@
       <c r="C545" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="D545"/>
       <c r="E545" t="s">
         <v>326</v>
       </c>
@@ -12426,7 +12240,6 @@
       <c r="C546" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="D546"/>
       <c r="E546" t="s">
         <v>326</v>
       </c>
@@ -12441,7 +12254,6 @@
       <c r="C547" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="D547"/>
       <c r="E547" t="s">
         <v>326</v>
       </c>
@@ -12456,7 +12268,6 @@
       <c r="C548" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="D548"/>
       <c r="E548" t="s">
         <v>326</v>
       </c>
@@ -12471,7 +12282,6 @@
       <c r="C549" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="D549"/>
       <c r="E549" t="s">
         <v>326</v>
       </c>
@@ -12486,7 +12296,6 @@
       <c r="C550" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="D550"/>
       <c r="E550" t="s">
         <v>327</v>
       </c>
@@ -12501,7 +12310,6 @@
       <c r="C551" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="D551"/>
       <c r="E551" t="s">
         <v>327</v>
       </c>
@@ -12516,7 +12324,6 @@
       <c r="C552" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="D552"/>
       <c r="E552" t="s">
         <v>327</v>
       </c>
@@ -12531,7 +12338,6 @@
       <c r="C553" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="D553"/>
       <c r="E553" t="s">
         <v>327</v>
       </c>
@@ -12546,7 +12352,6 @@
       <c r="C554" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="D554"/>
       <c r="E554" t="s">
         <v>327</v>
       </c>
@@ -12561,7 +12366,6 @@
       <c r="C555" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="D555"/>
       <c r="E555" t="s">
         <v>327</v>
       </c>
@@ -12576,7 +12380,6 @@
       <c r="C556" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="D556"/>
       <c r="E556" t="s">
         <v>327</v>
       </c>
@@ -12591,7 +12394,6 @@
       <c r="C557" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="D557"/>
       <c r="E557" t="s">
         <v>327</v>
       </c>
@@ -12606,7 +12408,6 @@
       <c r="C558" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="D558"/>
       <c r="E558" t="s">
         <v>327</v>
       </c>
@@ -12621,7 +12422,6 @@
       <c r="C559" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="D559"/>
       <c r="E559" t="s">
         <v>327</v>
       </c>
@@ -12636,7 +12436,6 @@
       <c r="C560" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="D560"/>
       <c r="E560" t="s">
         <v>327</v>
       </c>
@@ -12651,7 +12450,6 @@
       <c r="C561" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="D561"/>
       <c r="E561" t="s">
         <v>327</v>
       </c>
@@ -12666,7 +12464,6 @@
       <c r="C562" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="D562"/>
       <c r="E562" t="s">
         <v>327</v>
       </c>
@@ -12681,7 +12478,6 @@
       <c r="C563" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="D563"/>
       <c r="E563" t="s">
         <v>327</v>
       </c>
@@ -12696,7 +12492,6 @@
       <c r="C564" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="D564"/>
       <c r="E564" t="s">
         <v>327</v>
       </c>
@@ -12711,7 +12506,6 @@
       <c r="C565" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="D565"/>
       <c r="E565" t="s">
         <v>327</v>
       </c>
@@ -12726,7 +12520,6 @@
       <c r="C566" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="D566"/>
       <c r="E566" t="s">
         <v>327</v>
       </c>
@@ -12741,7 +12534,6 @@
       <c r="C567" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="D567"/>
       <c r="E567" t="s">
         <v>328</v>
       </c>
@@ -12756,7 +12548,6 @@
       <c r="C568" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="D568"/>
       <c r="E568" t="s">
         <v>328</v>
       </c>
@@ -12771,7 +12562,6 @@
       <c r="C569" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="D569"/>
       <c r="E569" t="s">
         <v>328</v>
       </c>
@@ -12786,7 +12576,6 @@
       <c r="C570" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="D570"/>
       <c r="E570" t="s">
         <v>328</v>
       </c>
@@ -12801,7 +12590,6 @@
       <c r="C571" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="D571"/>
       <c r="E571" t="s">
         <v>328</v>
       </c>
@@ -12816,7 +12604,6 @@
       <c r="C572" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="D572"/>
       <c r="E572" t="s">
         <v>328</v>
       </c>
@@ -12831,7 +12618,6 @@
       <c r="C573" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="D573"/>
       <c r="E573" t="s">
         <v>328</v>
       </c>
@@ -12846,7 +12632,6 @@
       <c r="C574" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="D574"/>
       <c r="E574" t="s">
         <v>328</v>
       </c>
@@ -12861,7 +12646,6 @@
       <c r="C575" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="D575"/>
       <c r="E575" t="s">
         <v>328</v>
       </c>
@@ -12876,7 +12660,6 @@
       <c r="C576" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="D576"/>
       <c r="E576" t="s">
         <v>328</v>
       </c>
@@ -12891,7 +12674,6 @@
       <c r="C577" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="D577"/>
       <c r="E577" t="s">
         <v>328</v>
       </c>
@@ -12906,7 +12688,6 @@
       <c r="C578" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="D578"/>
       <c r="E578" t="s">
         <v>328</v>
       </c>
@@ -12921,7 +12702,6 @@
       <c r="C579" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="D579"/>
       <c r="E579" t="s">
         <v>328</v>
       </c>
@@ -12936,7 +12716,6 @@
       <c r="C580" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="D580"/>
       <c r="E580" t="s">
         <v>328</v>
       </c>
@@ -12951,7 +12730,6 @@
       <c r="C581" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="D581"/>
       <c r="E581" t="s">
         <v>328</v>
       </c>
@@ -12966,7 +12744,6 @@
       <c r="C582" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="D582"/>
       <c r="E582" t="s">
         <v>328</v>
       </c>
@@ -12981,7 +12758,6 @@
       <c r="C583" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="D583"/>
       <c r="E583" t="s">
         <v>328</v>
       </c>
@@ -12996,7 +12772,6 @@
       <c r="C584" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="D584"/>
       <c r="E584" t="s">
         <v>328</v>
       </c>
@@ -13011,7 +12786,6 @@
       <c r="C585" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="D585"/>
       <c r="E585" t="s">
         <v>328</v>
       </c>
@@ -13026,7 +12800,6 @@
       <c r="C586" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="D586"/>
       <c r="E586" t="s">
         <v>328</v>
       </c>
@@ -13041,7 +12814,6 @@
       <c r="C587" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="D587"/>
       <c r="E587" t="s">
         <v>330</v>
       </c>
@@ -13056,7 +12828,6 @@
       <c r="C588" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="D588"/>
       <c r="E588" t="s">
         <v>330</v>
       </c>
@@ -13071,7 +12842,6 @@
       <c r="C589" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="D589"/>
       <c r="E589" t="s">
         <v>330</v>
       </c>
@@ -13086,7 +12856,6 @@
       <c r="C590" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="D590"/>
       <c r="E590" t="s">
         <v>330</v>
       </c>
@@ -13101,7 +12870,6 @@
       <c r="C591" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="D591"/>
       <c r="E591" t="s">
         <v>330</v>
       </c>
@@ -13116,7 +12884,6 @@
       <c r="C592" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="D592"/>
       <c r="E592" t="s">
         <v>330</v>
       </c>
@@ -13131,7 +12898,6 @@
       <c r="C593" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="D593"/>
       <c r="E593" t="s">
         <v>330</v>
       </c>
@@ -13146,7 +12912,6 @@
       <c r="C594" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="D594"/>
       <c r="E594" t="s">
         <v>330</v>
       </c>
@@ -13161,7 +12926,6 @@
       <c r="C595" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="D595"/>
       <c r="E595" t="s">
         <v>330</v>
       </c>
@@ -13176,7 +12940,6 @@
       <c r="C596" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="D596"/>
       <c r="E596" t="s">
         <v>330</v>
       </c>
